--- a/src/results/results.xlsx
+++ b/src/results/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="283" count="283">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="432" count="432">
   <x:si>
     <x:t>city</x:t>
   </x:si>
@@ -49,27 +49,6 @@
     <x:t>Hospital</x:t>
   </x:si>
   <x:si>
-    <x:t>Oncoville</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oncoville.com.br</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(41) 3013-8800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rodovia Curitiba - Ponta Grossa Br-277, 1437 - Mossunguê, Curitiba - PR, 82305-100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-25.431858</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-49.3296117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/Oncoville/data=!4m5!3m4!1s0x94dce515621b57c7:0xc12dab78cb79e518!8m2!3d-25.431858!4d-49.327423?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
     <x:t>Hospital Marcelino Champagnat</x:t>
   </x:si>
   <x:si>
@@ -112,6 +91,27 @@
     <x:t>https://www.google.com/maps/place/Complexo+Hospital+de+Cl%C3%ADnicas+UFPR/data=!4m5!3m4!1s0x94dce43e77959da7:0x725e3a407b4e2f45!8m2!3d-25.4241606!4d-49.2619478?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
   </x:si>
   <x:si>
+    <x:t>Hospital São Vicente FUNEF</x:t>
+  </x:si>
+  <x:si>
+    <x:t>saovicentecuritiba.com.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(41) 3111-3000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Av. Vicente Machado, 401 - Centro, Curitiba - PR, 80420-010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-25.4348501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-49.2825496</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+S%C3%A3o+Vicente+FUNEF/data=!4m5!3m4!1s0x94dce474c0b86467:0x7699822c242d54cd!8m2!3d-25.4348501!4d-49.2803609?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
     <x:t>Hospital Universitário Cajuru</x:t>
   </x:si>
   <x:si>
@@ -154,27 +154,6 @@
     <x:t>https://www.google.com/maps/place/Hospital+Nossa+Senhora+das+Gra%C3%A7as/data=!4m5!3m4!1s0x94dce3fc771c6821:0x6f7f73a99c86b0b3!8m2!3d-25.421905!4d-49.2908017?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
   </x:si>
   <x:si>
-    <x:t>Hospital São Vicente FUNEF</x:t>
-  </x:si>
-  <x:si>
-    <x:t>saovicentecuritiba.com.br</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(41) 3111-3000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Av. Vicente Machado, 401 - Centro, Curitiba - PR, 80420-010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-25.4348501</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-49.2825496</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/Hospital+S%C3%A3o+Vicente+FUNEF/data=!4m5!3m4!1s0x94dce474c0b86467:0x7699822c242d54cd!8m2!3d-25.4348501!4d-49.2803609?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
     <x:t>Hospital das Nações</x:t>
   </x:si>
   <x:si>
@@ -196,27 +175,6 @@
     <x:t>https://www.google.com/maps/place/Hospital+das+Na%C3%A7%C3%B5es/data=!4m5!3m4!1s0x94dce5b3b3d0fa2f:0xe2bf5cedef2e304c!8m2!3d-25.42832!4d-49.2405897?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
   </x:si>
   <x:si>
-    <x:t>Hospital Pequeno Príncipe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pequenoprincipe.org.br</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(41) 3310-1010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rua Desembargador Motta, 1070 - Água Verde, Curitiba - PR, 80250-060</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-25.4438804</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-49.2784591</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/Hospital+Pequeno+Pr%C3%ADncipe/data=!4m5!3m4!1s0x94dce47af5cf7799:0x85e723b7a226b2d8!8m2!3d-25.4438804!4d-49.2762704?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
     <x:t>Pronto Atendimento</x:t>
   </x:si>
   <x:si>
@@ -232,637 +190,1126 @@
     <x:t>https://www.google.com/maps/place/Pronto+Atendimento/data=!4m5!3m4!1s0x94dcf7533a3ba6df:0xb460af7891f89b8b!8m2!3d-25.5432389!4d-49.1963983?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
   </x:si>
   <x:si>
-    <x:t>Hospital São Vicente - CIC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>funef.com.br</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(41) 3111-3090</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R. Schirlei Solange Mantovani, 1160 - Cidade Industrial de Curitiba, Curitiba - PR, 81305-010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-25.5100284</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-49.3304472</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/Hospital+S%C3%A3o+Vicente+-+CIC/data=!4m5!3m4!1s0x94dcfd2b13c2338d:0x32682f2475ba3794!8m2!3d-25.5100284!4d-49.3282585?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clínica</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Direito de Ouvir Aparelhos Auditivos</x:t>
-  </x:si>
-  <x:si>
-    <x:t>direitodeouvir.com.br</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0800 941 5330</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Av. Rep. Argentina, 452 - 1302 - Água Verde, Curitiba - PR, 80240-210</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-25.4505287</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-49.2904111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/Direito+de+Ouvir+Aparelhos+Auditivos/data=!4m5!3m4!1s0x94dce386b7144d79:0x12b1a58e5927ffc1!8m2!3d-25.4505287!4d-49.2882224?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CliniPlus - Clínica Médica</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cliniplus.com.br</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(41) 3180-0816</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R. João Bettega, 1823 - Portão, Curitiba - PR, 81070-001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-25.4782924</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-49.3138579</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/CliniPlus+-+Cl%C3%ADnica+M%C3%A9dica/data=!4m5!3m4!1s0x94dce30cfaf9197f:0x36184c2dfcb8f216!8m2!3d-25.4782924!4d-49.3116692?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clínica Melhora Saúde</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(41) 3247-1524</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R. Olindo Sequinel, 88 - Pinheirinho, Curitiba - PR, 81150-120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-25.5166264</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-49.2971493</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/Cl%C3%ADnica+Melhora+Sa%C3%BAde/data=!4m5!3m4!1s0x94dcfcbd57e1e6e1:0xeb0392eaf5b7b609!8m2!3d-25.5166264!4d-49.2949606?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clínica São Lourenço</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(41) 3148-1305</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rua Elias Thomé, 3 - Pilarzinho, Curitiba - PR, 82120-370</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-25.3929626</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-49.2763906</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/Cl%C3%ADnica+S%C3%A3o+Louren%C3%A7o/data=!4m5!3m4!1s0x94dce6b81b54db37:0xb90f01a2306a02cd!8m2!3d-25.3929626!4d-49.2742019?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clínica São João Batista</x:t>
-  </x:si>
-  <x:si>
-    <x:t>clinicasaojoaobatista.com.br</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(41) 3373-6666</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R. Prof. João Falarz, 1086 - Ecoville, Curitiba - PR, 81280-270</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-25.4384718</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-49.3497007</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/Cl%C3%ADnica+S%C3%A3o+Jo%C3%A3o+Batista/data=!4m5!3m4!1s0x94dce21fac1216f9:0xcc8ae5dc55d6bc07!8m2!3d-25.4384718!4d-49.347512?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CLÍNICA CONTATO DE SAÚDE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>clinicacontato.com.br</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(41) 3234-1616</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R. Fernando Simas, 221 - Bigorrilho, Curitiba - PR, 80430-190</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-25.4340316</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-49.2910817</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/CL%C3%8DNICA+CONTATO+DE+SA%C3%9ADE/data=!4m5!3m4!1s0x94dce3f489bbfecd:0x8d1df21dee411696!8m2!3d-25.4340316!4d-49.288893?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clínica Medica Cic</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(41) 3347-2362</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R. Pedro Gusso, 3308 - Cidade Industrial De Curitiba, Curitiba - PR, 81315-550</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-25.5080973</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-49.324727</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/Cl%C3%ADnica+Medica+Cic/data=!4m5!3m4!1s0x94dcfcd51c666f9d:0x697af8bb994eca12!8m2!3d-25.5080973!4d-49.3225383?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clínica Médica São Vicente</x:t>
-  </x:si>
-  <x:si>
-    <x:t>csv.med.br</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(41) 3552-4000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R. São Vicente de Paulo, 250 - Centro, Araucária - PR, 83702-050</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-25.5878373</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-49.400443</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/Cl%C3%ADnica+M%C3%A9dica+S%C3%A3o+Vicente/data=!4m5!3m4!1s0x94dd03e4a70844ed:0x14ae745ff53e2b2a!8m2!3d-25.5878373!4d-49.3982543?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clínica Santa Marta</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(41) 3266-4370</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R. Eng. Costa Barros - Cajuru, Curitiba - PR, 82940-010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-25.4472392</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-49.2187724</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/Cl%C3%ADnica+Santa+Marta/data=!4m5!3m4!1s0x94dce5693d1b82a7:0xcfa5e71d537831ff!8m2!3d-25.4472392!4d-49.2165837?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clínica Médica Mais Vida</x:t>
-  </x:si>
-  <x:si>
-    <x:t>clinicamedicamaisvida.med.br</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(41) 3333-3322</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R. Dr. Raul Carneiro Filho, 328 - Água Verde, Curitiba - PR, 80620-440</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-25.4560622</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-49.2734813</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/Cl%C3%ADnica+M%C3%A9dica+Mais+Vida/data=!4m5!3m4!1s0x94dce48edc46b355:0xb64d654cf4b9cffa!8m2!3d-25.4560622!4d-49.2712926?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>São Paulo Capital</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hospital e Maternidade Brasil</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rededorsaoluiz.com.br</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(11) 2127-6666</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R. Votuporanga, 111 - Vila Dora, Santo André - SP, 09030-590</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-23.6680572</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-46.5337837</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/Hospital+e+Maternidade+Brasil/data=!4m5!3m4!1s0x94ce42618c151d3d:0x98d89475551a23d6!8m2!3d-23.6680572!4d-46.531595?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hospital Jardins</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hospitaljardins.com.br</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(11) 3068-5888</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R. Artur de Azevedo, 1659 - Pinheiros, São Paulo - SP, 05404-013</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-23.565867</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-46.6887541</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/Hospital+Jardins/data=!4m5!3m4!1s0x94ce579e2e45a0ab:0x1e12bc86f9512d45!8m2!3d-23.565867!4d-46.6865654?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hospital Nove de Julho</x:t>
-  </x:si>
-  <x:si>
-    <x:t>h9j.com.br</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(11) 3147-9999</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rua Peixoto Gomide, 545 - Cerqueira César, São Paulo - SP, 01409-002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-23.5594056</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-46.6575205</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/Hospital+Nove+de+Julho/data=!4m5!3m4!1s0x94ce59cbf43e4f17:0xed3a9aceeec00b9b!8m2!3d-23.5594056!4d-46.6553318?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hospital Alemão Oswaldo Cruz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hospitaloswaldocruz.org.br</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(11) 3549-1000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R. Treze de Maio, 1815 - Bela Vista, São Paulo - SP, 01323-020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-23.5692208</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-46.6452005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/Hospital+Alem%C3%A3o+Oswaldo+Cruz/data=!4m5!3m4!1s0x94ce59bd42a961cf:0xe9b8feb7b7fe2e79!8m2!3d-23.5692208!4d-46.6430118?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hospital</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Av. Angélica, 916 - Santa Cecilia, São Paulo - SP, 01227-000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-23.5408418</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-46.6581561</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/hospital/data=!4m5!3m4!1s0x94ce583ea84e67c7:0x6176c1fcd580932b!8m2!3d-23.5408418!4d-46.6559674?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hospital IGESP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hospitaligesp.com.br</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(11) 3147-6200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R. Silvia, 276 - Bela Vista, São Paulo - SP, 01331-010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-23.5607012</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-46.6528986</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/Hospital+IGESP/data=!4m5!3m4!1s0x94ce59b63b1d81bf:0x641f24531b7906c7!8m2!3d-23.5607012!4d-46.6507099?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hospital Paulistano</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hospitalpaulistano.com.br</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(11) 3016-1000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R. Martiniano de Carvalho, 741 - Bela Vista, São Paulo - SP, 01321-001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-23.5650636</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-46.6445229</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/Hospital+Paulistano/data=!4m5!3m4!1s0x94ce577c3856f965:0xbb12ae1480a58da0!8m2!3d-23.5650636!4d-46.6423342?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hospital São Paulo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hospitalsaopaulo.org.br</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(11) 5576-4522</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R. Napoleão de Barros, 715 - Vila Clementino, São Paulo - SP, 04024-002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-23.5974526</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-46.6459306</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/Hospital+S%C3%A3o+Paulo/data=!4m5!3m4!1s0x94ce5a264d6b6611:0xae18ff6a2797997b!8m2!3d-23.5974526!4d-46.6437419?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hospital São Camilo - Unidade Pompeia (Pronto Socorro)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hospitalsaocamilosp.org.br</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(11) 3677-4444</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Av. Pompéia, 1178 - Pompeia, São Paulo - SP, 05022-001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-23.5339346</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-46.6905095</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/Hospital+S%C3%A3o+Camilo+-+Unidade+Pompeia+(Pronto+Socorro)/data=!4m5!3m4!1s0x94ce57dd48fb8f4d:0x8836a82d53498886!8m2!3d-23.5339346!4d-46.6883208?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hospital Central São Caetano do Sul</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(11) 2141-1800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R. Manoel Coelho, 845 - Centro, São Caetano do Sul - SP, 09510-112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-23.6171423</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-46.5745799</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/Hospital+Central+S%C3%A3o+Caetano+do+Sul/data=!4m5!3m4!1s0x94ce5cec9a81a6d7:0x6625d2e85d7e6dcf!8m2!3d-23.6171423!4d-46.5723912?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WeeCann Clinics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>weecann.com.br</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(11) 96578-6849</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-23.6821604</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-46.8754915</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/WeeCann+Clinics/data=!4m5!3m4!1s0x2814983f76f5bad5:0x966aa0916baf19d3!8m2!3d-23.6824124!4d-46.5952992?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ONE Laudos Diagnósticos Médicos</x:t>
-  </x:si>
-  <x:si>
-    <x:t>onelaudos.com.br</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(11) 4191-0588</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Av. Santo Amaro, 1047 - 14º andar - Vila Nova Conceição, São Paulo - SP, 04505-001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-23.5934193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-46.6746089</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/ONE+Laudos+Diagn%C3%B3sticos+M%C3%A9dicos/data=!4m5!3m4!1s0x94cf0201f798e299:0x4e69314e06bed5e!8m2!3d-23.5934193!4d-46.6724202?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AMÉRICA CLÍNICA MÉDICA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>clinicaamerica.com.br</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(11) 93055-9675</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rua Nélson Gebara, 337 - Parque America, São Paulo - SP, 04841-020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-23.7385255</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-46.6929846</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/AM%C3%89RICA+CL%C3%8DNICA+M%C3%89DICA/data=!4m5!3m4!1s0x94ce4f1543a8f20d:0x8eee28c52d3eb28f!8m2!3d-23.7385255!4d-46.6907959?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clínica Fares - Santo Amaro</x:t>
-  </x:si>
-  <x:si>
-    <x:t>clinicafares.com.br</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(11) 3851-4000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R. Barão do Rio Branco, 303 - Santo Amaro, São Paulo - SP, 04753-000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-23.6526775</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-46.7109893</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/Cl%C3%ADnica+Fares+-+Santo+Amaro/data=!4m5!3m4!1s0x94ce5054d647cb79:0x8b97e5886de8d89c!8m2!3d-23.6526775!4d-46.7088006?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clínica da Cidade - Vila Mascote</x:t>
-  </x:si>
-  <x:si>
-    <x:t>clinicadacidade.com.br</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(11) 5564-1949</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Av. Santa Catarina, 2165 - Vila Mascote, São Paulo - SP, 04378-400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-23.652854</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-46.6600634</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/Cl%C3%ADnica+da+Cidade+-+Vila+Mascote/data=!4m5!3m4!1s0x94ce5bc07bc13175:0xf0a0ad7c320c63e!8m2!3d-23.652854!4d-46.6578747?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clínica Attiê</x:t>
-  </x:si>
-  <x:si>
-    <x:t>clinicaattie.com.br</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(11) 2909-4000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R. Cel. Marcílio Franco, 578 - Vila Isolina Mazzei, São Paulo - SP, 02079-000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-23.4988076</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-46.6080927</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/Cl%C3%ADnica+Atti%C3%AA/data=!4m5!3m4!1s0x94cef61da19b5dbf:0x8178f9be2add99f!8m2!3d-23.4988076!4d-46.605904?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clínica de Todos - Itaquera - Clínica Popular</x:t>
-  </x:si>
-  <x:si>
-    <x:t>clinicadetodos-sp.com.br</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(11) 4839-0192</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Av. Itaquera, 8376 - Itaquera, São Paulo - SP, 08295-000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-23.5389928</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-46.4584115</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/Cl%C3%ADnica+de+Todos+-+Itaquera+-+Cl%C3%ADnica+Popular/data=!4m5!3m4!1s0x94ce67261458d0df:0xee5fe7168f2d0497!8m2!3d-23.5389928!4d-46.4562228?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A Saúde Clínica Médica</x:t>
-  </x:si>
-  <x:si>
-    <x:t>asaudeclinicamedica.com.br</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(11) 4788-2520</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R. Ernesto Capelari, 204 - Parque Santos Dumont, Taboão da Serra - SP, 06754-060</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-23.6078624</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-46.7588947</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/A+Sa%C3%BAde+Cl%C3%ADnica+M%C3%A9dica/data=!4m5!3m4!1s0x94ce5422c461d015:0x6028aa81896492f0!8m2!3d-23.6078624!4d-46.756706?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clínica De Saúde Unifaccamp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>unifaccamp.edu.br</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(11) 4863-0050</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R. Guatemala - Jardim America, Campo Limpo Paulista - SP, 13231-230</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-23.2025118</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-46.7868174</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/Cl%C3%ADnica+De+Sa%C3%BAde+Unifaccamp/data=!4m5!3m4!1s0x94cedfd3730c6987:0x67e9c9e24d88eb53!8m2!3d-23.2025118!4d-46.7846287?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Geral! - clínica médica popular no Campo Limpo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>geralsaude.com.br</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(11) 5512-2510</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Estr. de Itapecerica, 876 - Campo Limpo, São Paulo - SP, 05835-002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-23.6438746</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-46.746272</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.google.com/maps/place/Geral!+-+cl%C3%ADnica+m%C3%A9dica+popular+no+Campo+Limpo/data=!4m5!3m4!1s0x94ce5160bc6bd87b:0x90fa0f77b712e496!8m2!3d-23.6438746!4d-46.7440833?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+    <x:t>Porto Alegre-RS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Porto Alegre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(51) 3221-6066</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. Antônio Francisco da Rocha, 100 - Azenha, Porto Alegre - RS, 90050-010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-30.0454806</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-51.2188776</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Porto+Alegre/data=!4m5!3m4!1s0x9519785739c5f1c1:0x486bfc611afce47f!8m2!3d-30.0454806!4d-51.2166889?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Moinhos de Vento</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hospitalmoinhos.org.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(51) 3314-3434</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. Ramiro Barcelos, 910 - Moinhos de Vento, Porto Alegre - RS, 90035-000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-30.0250791</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-51.2106763</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Moinhos+de+Vento/data=!4m5!3m4!1s0x951979b07aa72de9:0x5cdcc40ab2e5bf89!8m2!3d-30.0250791!4d-51.2084876?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. Ramiro Barcelos, 1981 - Bom Fim, Porto Alegre - RS, 90035-006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-30.0365491</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-51.2106982</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital/data=!4m5!3m4!1s0x9519799e996b69df:0xd9dff9aad7c6bedc!8m2!3d-30.0365491!4d-51.2085095?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital de Clínicas de Porto Alegre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hcpa.edu.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(51) 3359-8000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rua Ramiro Barcelos, 2350, Av. Protásio Alves, 211 - Santa Cecília, Porto Alegre - RS, 90035-903</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-30.0388553</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-51.2088261</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+de+Cl%C3%ADnicas+de+Porto+Alegre/data=!4m5!3m4!1s0x9519784ebb3943df:0xe484226d1bf56a44!8m2!3d-30.0388553!4d-51.2066374?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Cristo Redentor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ghc.com.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(51) 3357-4100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rua Domingos Rubbo, 20 - Cristo Redentor, Porto Alegre - RS, 91040-000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-30.0101048</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-51.1614743</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Cristo+Redentor/data=!4m5!3m4!1s0x951977732fbfa335:0x6edddaa4ecf09db5!8m2!3d-30.0101048!4d-51.1592856?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Independência - Rede de Saúde Divina Providência</x:t>
+  </x:si>
+  <x:si>
+    <x:t>divinaprovidencia.org.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(51) 3383-5600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Av. Antônio de Carvalho, 450 - Agronomia, Porto Alegre - RS, 91430-000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-30.0611194</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-51.1515546</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Independ%C3%AAncia+-+Rede+de+Sa%C3%BAde+Divina+Provid%C3%AAncia/data=!4m5!3m4!1s0x95199d654487c639:0x10e9070236518347!8m2!3d-30.0611194!4d-51.1493659?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Mãe de Deus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>maededeus.com.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(51) 3230-6000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. José de Alencar, 286 - Menino Deus, Porto Alegre - RS, 90880-481</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-30.0590304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-51.2311873</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+M%C3%A3e+de+Deus/data=!4m5!3m4!1s0x951978f31f8001cb:0x494d29c37386aeac!8m2!3d-30.0590304!4d-51.2289986?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Joinville-SC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital de mafra sc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Centro I Baixada, Mafra - SC, 89300-000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-26.1165231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-49.8112872</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+de+mafra+sc/data=!4m5!3m4!1s0x94dd9336eb2af46f:0xc23139c08bd819b3!8m2!3d-26.1165231!4d-49.8090985?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital e Maternidade Sagrada Família</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hmsf.com.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(47) 3631-0200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. Henrique Schwarz, 10 - Centro, São Bento do Sul - SC, 89290-000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-26.249893</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-49.3863066</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+e+Maternidade+Sagrada+Fam%C3%ADlia/data=!4m5!3m4!1s0x94ddd4bfbc3b6365:0x6c9420c9c147e8da!8m2!3d-26.249893!4d-49.3841179?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fundação Hospitalar Rio Negrinho - Hospital Rio Negrinho</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fhrn.com.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(47) 3646-2000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. Fritz Klosterman, 403 - Centro, Rio Negrinho - SC, 89295-000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-26.2545293</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-49.5126262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Funda%C3%A7%C3%A3o+Hospitalar+Rio+Negrinho+-+Hospital+Rio+Negrinho/data=!4m5!3m4!1s0x94ddd095836df2db:0xabc54e0cc7153b0d!8m2!3d-26.2545293!4d-49.5104375?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital São Vicente De Paulo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hsvpmafra.org.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(47) 3641-3600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. Sen. Salgado Filho - Vila Buenos Aires, Mafra - SC, 89300-000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-26.1151171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-49.7957681</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+S%C3%A3o+Vicente+De+Paulo/data=!4m5!3m4!1s0x94dd933ff83c144d:0x89676f24b17247e4!8m2!3d-26.1151171!4d-49.7935794?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Regional do Litoral</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(41) 3420-7400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. Pres. Getúlio Vargas, 222 - Palmital, Paranaguá - PR, 83206-020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-25.525154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-48.5166723</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Regional+do+Litoral/data=!4m5!3m4!1s0x94db9bd25a0b84f7:0x51755db961a9e786!8m2!3d-25.525154!4d-48.5144836?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital e Maternidade Marieta Konder Bornhausen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hospitalmarieta.org.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(47) 3249-9400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Av. Cel. Marcos Konder, 1111 - Centro, Itajaí - SC, 88301-303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-26.9105679</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-48.6617994</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+e+Maternidade+Marieta+Konder+Bornhausen/data=!4m5!3m4!1s0x94d8cc7301acbaf9:0xc98c519c440bf41b!8m2!3d-26.9105679!4d-48.6596107?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Dona Helena</x:t>
+  </x:si>
+  <x:si>
+    <x:t>donahelena.com.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(47) 3451-3333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. Blumenau, 123 - Centro, Joinville - SC, 89204-250</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-26.2991924</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-48.8528383</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Dona+Helena/data=!4m5!3m4!1s0x94deb038311990b7:0x5a336ee36789406a!8m2!3d-26.2991924!4d-48.8506496?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Londrina-PR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Araucária de Londrina</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hospitalaraucaria.com.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(43) 3371-2500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. Bento Munhoz da Rocha Neto, 2485 - Gleba Fazenda Palhano, Londrina - PR, 86050-435</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-23.3227407</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-51.1849085</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Arauc%C3%A1ria+de+Londrina/data=!4m5!3m4!1s0x94eb5cab781e31fb:0x9129e89d887cf2a8!8m2!3d-23.3227407!4d-51.1827198?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Evangélico de Londrina</x:t>
+  </x:si>
+  <x:si>
+    <x:t>helondrina.org.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(43) 3378-1000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Av. Bandeirantes, 618 - Vila Ipiranga, Londrina - PR, 86015-900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-23.32676</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-51.16214</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Evang%C3%A9lico+de+Londrina/data=!4m5!3m4!1s0x94eb434224ea24f5:0xfe18e6002fbdf3dd!8m2!3d-23.32676!4d-51.1599513?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Dr Anísio Figueiredo - Zona Norte de Londrina</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hdaf.pr.gov.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(43) 3376-4600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. Odilon Braga, 199 - Sebastiao de Melo César, Londrina - PR, 86084-600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-23.2595192</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-51.1561833</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Dr+An%C3%ADsio+Figueiredo+-+Zona+Norte+de+Londrina/data=!4m5!3m4!1s0x94eb451693ff5901:0x8275f3cec6f8438b!8m2!3d-23.2595192!4d-51.1539946?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Dr. Eulalino Ignácio De Andrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>londrina.pr.gov.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(43) 3374-1900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. das Orquídeas, 75 - Ouro Branco, Londrina - PR, 86042-180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-23.3631365</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-51.1462528</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Dr.+Eulalino+Ign%C3%A1cio+De+Andrade/data=!4m5!3m4!1s0x94eb42f3c4230f83:0x4d906f3d89ba1a95!8m2!3d-23.3631365!4d-51.1440641?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Geral Londrina</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gleba Fazenda Palhano, Londrina - PR, 86055-690</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-23.3255354</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-51.195019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Geral+Londrina/data=!4m5!3m4!1s0x94eb5ca68bfbbe3b:0xd9917cdc565c1e28!8m2!3d-23.3255354!4d-51.1928303?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Do Coração - Paes Leme</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hospcoracao.com.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(43) 3315-2000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. Paes Leme, 1351 - Jardim America, Londrina - PR, 86010-610</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-23.3232424</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-51.1643435</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Do+Cora%C3%A7%C3%A3o+-+Paes+Leme/data=!4m5!3m4!1s0x94eb434336e8c781:0x36ab4c097423dffe!8m2!3d-23.3232424!4d-51.1621548?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital De S. Leonardo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Centro, Londrina - PR, 86020-140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-23.3045009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-51.1717141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+De+S.+Leonardo/data=!4m5!3m4!1s0x94eb44b00343c379:0xe0790bff2c7a31ab!8m2!3d-23.3045009!4d-51.1695254?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Caxias do Sul-RS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Virvi Ramos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>virviramos.com.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(54) 2108-8333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. Castro Alves, 454 - Madureira, Caxias do Sul - RS, 95041-520</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-29.1545412</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-51.1822558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Virvi+Ramos/data=!4m5!3m4!1s0x951ea2d3308e1731:0x977cafc686443526!8m2!3d-29.1545412!4d-51.1800671?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital São Roque</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hsaoroque.com.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(54) 3461-9200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Av. Pres. Kennedy, 343 - Aurora, Carlos Barbosa - RS, 95185-000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-29.2958345</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-51.5000949</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+S%C3%A3o+Roque/data=!4m5!3m4!1s0x951c19ec3da60f55:0x7dce5c1448dd5a4c!8m2!3d-29.2958345!4d-51.4979062?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Saúde</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hospitalsaude.com.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(54) 3026-2699</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. Vinte de Setembro, 2311 - Centro, Caxias do Sul - RS, 95020-450</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-29.1647169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-51.1856689</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Sa%C3%BAde/data=!4m5!3m4!1s0x951ea32bcb6afe5f:0xd3aac9fc3b2e4295!8m2!3d-29.1647169!4d-51.1834802?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Geral de Caxias do Sul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hgcs.com.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(54) 3218-7200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rua Prof. Antônio Vignoli, 255 - Pres. Vargas, Caxias do Sul - RS, 95070-561</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-29.1611805</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-51.158413</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Geral+de+Caxias+do+Sul/data=!4m5!3m4!1s0x951ebce64c98a19d:0x48100e3270edda90!8m2!3d-29.1611805!4d-51.1562243?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Tacchini</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hospitaltacchini.com.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(54) 3455-4333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. Dr. José Mário Mônaco, 358 - Centro, Bento Gonçalves - RS, 95700-068</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-29.1675874</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-51.51688</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Tacchini/data=!4m5!3m4!1s0x951c17e906f0be05:0x25b231c1542666ef!8m2!3d-29.1675874!4d-51.5146913?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Sinha Junqueira</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dom, R. Mal. Humberto de Alencar Castelo Branco, 1500, Bento Gonçalves - RS, 95700-000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-29.1628424</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-51.4960038</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Sinha+Junqueira/data=!4m5!3m4!1s0x951c2369d9b31917:0xfcb5b506d17b860b!8m2!3d-29.1628424!4d-51.4938151?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Beneficente São Carlos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hbsc.com.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(54) 3261-8700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. da República, 51 - Centro, Farroupilha - RS, 95170-476</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-29.2268746</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-51.3514012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Beneficente+S%C3%A3o+Carlos/data=!4m5!3m4!1s0x951c1e285a9813bf:0x65b53baad7979b3e!8m2!3d-29.2268746!4d-51.3492125?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Florianópolis-SC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Florianópolis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>imas.net.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(48) 3281-7800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. Santa Rita de Cássia, 1665 - Estreito, Florianópolis - SC, 88090-352</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-27.5896154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-48.5894407</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Florian%C3%B3polis/data=!4m5!3m4!1s0x952737da2f3992ed:0x837d8a3a50e91699!8m2!3d-27.5896154!4d-48.587252?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jurerê</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sluzia.com.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(48) 3952-4205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. das Algas, 215 - Jurerê, Florianópolis - SC, 88053-505</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-27.4410793</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-48.49594</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Jurer%C3%AA/data=!4m5!3m4!1s0x95274466a0706081:0xa43db72fb0fe78bf!8m2!3d-27.4410793!4d-48.4937513?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Baía Sul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hospitalbaiasul.com.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(48) 3229-7777</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. Menino Deus, 63 - Centro, Florianópolis - SC, 88020-210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-27.6011594</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-48.5471436</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Ba%C3%ADa+Sul/data=!4m5!3m4!1s0x952738227517d3bd:0x953a49378ecac85b!8m2!3d-27.6011594!4d-48.5449549?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Governador Celso Ramos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>saude.sc.gov.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(48) 3251-7000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. Irmã Benwarda, s/n - Centro, Florianópolis - SC, 88015-270</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-27.588546</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-48.5528867</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Governador+Celso+Ramos/data=!4m5!3m4!1s0x95273819a8ffd06b:0xc91a18f9d43279f7!8m2!3d-27.588546!4d-48.550698?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Praia Comprida</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(48) 3952-4212</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. João Amaral Rios, 335 - Lote 18, quadra B - Praia Comprida, São José - SC, 88103-475</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-27.6080883</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-48.6336284</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Praia+Comprida/data=!4m5!3m4!1s0x95273604554af8cd:0xf96f1f8933c20641!8m2!3d-27.6080883!4d-48.6314397?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Imperial Hospital de Caridade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hospitaldecaridade.com.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(48) 3221-7500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. Menino Deus, 376 - Centro, Florianópolis - SC, 88020-210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-27.6027567</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-48.5473445</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Imperial+Hospital+de+Caridade/data=!4m5!3m4!1s0x95273833e2dc5beb:0xf31d19327bc01d8a!8m2!3d-27.6027567!4d-48.5451558?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Beira Mar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(48) 3029-9999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. Gen. Acastro de Campos, 153 - Morro da Cruz, Florianópolis - SC, 88025-140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-27.5824191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-48.5427705</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Beira+Mar/data=!4m5!3m4!1s0x952739dc02f4bc09:0x25b74b6635d111e7!8m2!3d-27.5824191!4d-48.5405818?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maringá-PR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Maringá</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hospitalmaringa.com.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(44) 3027-7100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Av. Cidade de Leiria, 351 - Zona 01, Maringá - PR, 87013-280</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-23.4221485</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-51.9493296</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Maring%C3%A1/data=!4m5!3m4!1s0x94ecd72621aefccd:0xbedb6e5863a23e43!8m2!3d-23.4221485!4d-51.9471409?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Paraná</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hospitalparana.com.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(44) 3218-4000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Av. Dr. Luiz Teixeira Mendes, 1929 - Zona 05, Maringá - PR, 87015-000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-23.4367059</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-51.9628821</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Paran%C3%A1/data=!4m5!3m4!1s0x94ecd716fc0a0a0d:0xa8e9b593f110ab58!8m2!3d-23.4367059!4d-51.9606934?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital e Maternidade São Paulo de Cianorte</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cianorte.pr.gov.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(44) 3019-1288</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. Constituicão, 489 - Centro, Cianorte - PR, 87200-000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-23.6547322</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-52.6094306</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+e+Maternidade+S%C3%A3o+Paulo+de+Cianorte/data=!4m5!3m4!1s0x94ed5a0542d38b0b:0x169bf2d1b8959896!8m2!3d-23.6547322!4d-52.6072419?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Santa Rita</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hsr.org.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(44) 3220-6000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Av. Rio Branco, nº 101 - Zona 04, Maringá - PR, 87015-020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-23.4261359</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-51.9521421</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Santa+Rita/data=!4m5!3m4!1s0x94ecd7212a6ce845:0xfc1f6ab6435c0ebf!8m2!3d-23.4261359!4d-51.9499534?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital de Zona Sul</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(44) 3901-1857</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jardim Novo Horizonte I, Maringá - PR, 87005-110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-23.4440493</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-51.9305009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+de+Zona+Sul/data=!4m5!3m4!1s0x94ecd0afd713f4c7:0xa1711a5171b993ac!8m2!3d-23.4440493!4d-51.9283122?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Santa Casa de Maringá</x:t>
+  </x:si>
+  <x:si>
+    <x:t>santacasamaringa.com.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(44) 3027-5633</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. Santos Dumont, 555 - Zona 03, Maringá - PR, 87050-100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-23.4258453</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-51.9208637</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Santa+Casa+de+Maring%C3%A1/data=!4m5!3m4!1s0x94ecd0c3d045e03d:0x6dc0cab69c6da176!8m2!3d-23.4258453!4d-51.918675?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital e Maternidade São Marcos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hospitalsaomarcos.med.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(44) 3220-5522</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Av. Gov. Parigot de Souza, 404 - Zona 01, Maringá - PR, 87013-300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-23.4229703</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-51.9473989</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+e+Maternidade+S%C3%A3o+Marcos/data=!4m5!3m4!1s0x94ecd728e76ec0f1:0xec8f3161a8ea55d3!8m2!3d-23.4229703!4d-51.9452102?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blumenau-SC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Santa Catarina de Blumenau</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hsc.com.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(47) 3036-6000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. Amazonas, 301 - Garcia, Blumenau - SC, 89020-900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-26.9267303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-49.0580654</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Santa+Catarina+de+Blumenau/data=!4m5!3m4!1s0x94df189183afa95d:0x74e7af2589e11e63!8m2!3d-26.9267303!4d-49.0558767?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Misericórdia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hmvi.com.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(47) 3378-1110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. Max Haufe, 211 - Vila Itoupava, Blumenau - SC, 89095-370</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-26.7254772</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-49.0700405</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Miseric%C3%B3rdia/data=!4m5!3m4!1s0x94dee7166137b097:0xdcd7dd2ba8abf848!8m2!3d-26.7254772!4d-49.0678518?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Santo Antônio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hsan.com.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(47) 3231-4000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. Itajaí, 545 - Vorstadt, Blumenau - SC, 89015-200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-26.9165159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-49.0604479</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Santo+Ant%C3%B4nio/data=!4m5!3m4!1s0x94df18bef32e75a5:0xc11cc641f5a9fe1!8m2!3d-26.9165159!4d-49.0582592?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Beatriz Ramos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hospitalbeatrizramos.com.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(47) 3333-0500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. Des. Alves Pedrosa, 185 - Centro, Indaial - SC, 89130-000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-26.8985911</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-49.2379144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Beatriz+Ramos/data=!4m5!3m4!1s0x94df028c2cb1c159:0x334add50d02cb329!8m2!3d-26.8985911!4d-49.2357257?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Santa Isabel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>santaisabel.com.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(47) 3321-1000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. Floriano Peixoto, 300 - Centro, Blumenau - SC, 89010-906</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-26.9239033</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-49.0673607</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Santa+Isabel/data=!4m5!3m4!1s0x94df18eaf76ab65d:0xfa700f80fe9df86b!8m2!3d-26.9239033!4d-49.065172?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dr, R. Armando Odebrecht, 70 - Garcia, Blumenau - SC, 89020-403</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-26.9279261</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-49.0582732</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital/data=!4m5!3m4!1s0x94df1891fdcbe62f:0x2c08008e489f0300!8m2!3d-26.9279261!4d-49.0560845?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blumenal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. Cel. Vidal Ramos, 185 - Jardim Blumenau, Blumenau - SC, 89010-330</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-26.9259662</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-49.0649556</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Blumenal/data=!4m5!3m4!1s0x94df18eca2814d29:0x44ccbb1e59124276!8m2!3d-26.9259662!4d-49.0627669?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ponta Grossa-SC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Posto de Saúde de Ponta Grossa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>imarui.sc.gov.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(48) 3643-0138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Estr. Geral de Ponta Grossa - Ponta Grossa, Imaruí - SC, 88770-000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-28.3322917</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-48.8406408</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Posto+de+Sa%C3%BAde+de+Ponta+Grossa/data=!4m5!3m4!1s0x952149aa99a7e611:0xe3f534dab20a7074!8m2!3d-28.3322917!4d-48.8384521?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tubarão</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Estr. Estadual Tubarão - Praia do Lessa, Imaruí - SC, 88770-000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-28.3312365</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-48.8281401</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Tubar%C3%A3o/data=!4m5!3m4!1s0x9521497cab3de959:0x3298253d5ab441db!8m2!3d-28.3312365!4d-48.8259514?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital São João Batista</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(48) 3643-0101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. Gov. Célso Ramos, 475 - Centro, Imaruí - SC, 88770-000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-28.3494405</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-48.8164868</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+S%C3%A3o+Jo%C3%A3o+Batista/data=!4m5!3m4!1s0x95214941c5de3f4f:0xcfbdb58409a8d914!8m2!3d-28.3494405!4d-48.8142981?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Posto de Saúde de Ribeirão de Imaruí</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ribeirão de Imaruí, Imaruí - SC, 88770-000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-28.3195595</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-48.8278985</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Posto+de+Sa%C3%BAde+de+Ribeir%C3%A3o+de+Imaru%C3%AD/data=!4m5!3m4!1s0x952149a4be4584cf:0xbe0c3acc3f086987!8m2!3d-28.3195595!4d-48.8257098?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital São Camilo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>imbituba.sc.gov.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(48) 3255-0205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Av. Brasil, 938 - Paes Leme, Imbituba - SC, 88780-000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-28.24599</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-48.6795374</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+S%C3%A3o+Camilo/data=!4m5!3m4!1s0x9526b59d11aa5c3b:0xabfa958e570c3748!8m2!3d-28.24599!4d-48.6773487?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital de Caridade Senhor Bom Jesus Passos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hospitallaguna.com.br</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(48) 3646-0522</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. Oswaldo Aranha, 280 - Centro, Laguna - SC, 88790-000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-28.4860665</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-48.7822289</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+de+Caridade+Senhor+Bom+Jesus+Passos/data=!4m5!3m4!1s0x952153ea9a2e9ac9:0x47a3741b734493fb!8m2!3d-28.4860665!4d-48.7800402?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hospital Nossa Senhora da Conceição</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(48) 3631-7000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R. Vidal Ramos, 215 - Centro, Tubarão - SC, 88701-160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-28.4803578</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-49.0050844</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.google.com/maps/place/Hospital+Nossa+Senhora+da+Concei%C3%A7%C3%A3o/data=!4m5!3m4!1s0x952142e2dc8690b7:0x2fa7827145f3622f!8m2!3d-28.4803578!4d-49.0028957?authuser=0&amp;hl=pt-BR&amp;rclk=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Canoas-RS</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1438,62 +1885,59 @@
       <x:c r="C8" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="s">
+      <x:c r="F8" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="E8" s="0" t="s">
+      <x:c r="G8" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="F8" s="0" t="s">
+      <x:c r="H8" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="G8" s="0" t="s">
+      <x:c r="I8" s="0" t="s">
         <x:v>57</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="I8" s="0" t="s">
-        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
       <x:c r="A9" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="s">
+      <x:c r="F9" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="E9" s="0" t="s">
+      <x:c r="G9" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="F9" s="0" t="s">
+      <x:c r="H9" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="G9" s="0" t="s">
+      <x:c r="I9" s="0" t="s">
         <x:v>64</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="I9" s="0" t="s">
-        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
       <x:c r="A10" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
         <x:v>67</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
@@ -1511,435 +1955,438 @@
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D11" s="0" t="s">
+      <x:c r="G11" s="0" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="E11" s="0" t="s">
+      <x:c r="H11" s="0" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="F11" s="0" t="s">
+      <x:c r="I11" s="0" t="s">
         <x:v>75</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="I11" s="0" t="s">
-        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="s">
+      <x:c r="G12" s="0" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="D12" s="0" t="s">
+      <x:c r="H12" s="0" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="E12" s="0" t="s">
+      <x:c r="I12" s="0" t="s">
         <x:v>82</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="I12" s="0" t="s">
-        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="D13" s="0" t="s">
+      <x:c r="H13" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="E13" s="0" t="s">
+      <x:c r="I13" s="0" t="s">
         <x:v>89</x:v>
-      </x:c>
-      <x:c r="F13" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="G13" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="H13" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="I13" s="0" t="s">
-        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
       <x:c r="A14" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="E14" s="0" t="s">
+      <x:c r="H14" s="0" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="F14" s="0" t="s">
+      <x:c r="I14" s="0" t="s">
         <x:v>96</x:v>
-      </x:c>
-      <x:c r="G14" s="0" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="I14" s="0" t="s">
-        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="E15" s="0" t="s">
+      <x:c r="G15" s="0" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="F15" s="0" t="s">
+      <x:c r="H15" s="0" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="G15" s="0" t="s">
+      <x:c r="I15" s="0" t="s">
         <x:v>103</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="I15" s="0" t="s">
-        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="D16" s="0" t="s">
+      <x:c r="G16" s="0" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="E16" s="0" t="s">
+      <x:c r="H16" s="0" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="F16" s="0" t="s">
+      <x:c r="I16" s="0" t="s">
         <x:v>109</x:v>
-      </x:c>
-      <x:c r="G16" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="H16" s="0" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="I16" s="0" t="s">
-        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="D17" s="0" t="s">
+      <x:c r="G17" s="0" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="E17" s="0" t="s">
+      <x:c r="H17" s="0" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="F17" s="0" t="s">
+      <x:c r="I17" s="0" t="s">
         <x:v>116</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="H17" s="0" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="I17" s="0" t="s">
-        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="E18" s="0" t="s">
+      <x:c r="G18" s="0" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="F18" s="0" t="s">
+      <x:c r="H18" s="0" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="G18" s="0" t="s">
+      <x:c r="I18" s="0" t="s">
         <x:v>123</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="I18" s="0" t="s">
-        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="D19" s="0" t="s">
+      <x:c r="F19" s="0" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="E19" s="0" t="s">
+      <x:c r="G19" s="0" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="F19" s="0" t="s">
+      <x:c r="H19" s="0" t="s">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="G19" s="0" t="s">
+      <x:c r="I19" s="0" t="s">
         <x:v>130</x:v>
-      </x:c>
-      <x:c r="H19" s="0" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="I19" s="0" t="s">
-        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="E20" s="0" t="s">
+      <x:c r="G20" s="0" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="F20" s="0" t="s">
+      <x:c r="H20" s="0" t="s">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="G20" s="0" t="s">
+      <x:c r="I20" s="0" t="s">
         <x:v>136</x:v>
-      </x:c>
-      <x:c r="H20" s="0" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="I20" s="0" t="s">
-        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
         <x:v>139</x:v>
       </x:c>
-      <x:c r="D21" s="0" t="s">
+      <x:c r="F21" s="0" t="s">
         <x:v>140</x:v>
       </x:c>
-      <x:c r="E21" s="0" t="s">
+      <x:c r="G21" s="0" t="s">
         <x:v>141</x:v>
       </x:c>
-      <x:c r="F21" s="0" t="s">
+      <x:c r="H21" s="0" t="s">
         <x:v>142</x:v>
       </x:c>
-      <x:c r="G21" s="0" t="s">
+      <x:c r="I21" s="0" t="s">
         <x:v>143</x:v>
-      </x:c>
-      <x:c r="H21" s="0" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="I21" s="0" t="s">
-        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
         <x:v>146</x:v>
       </x:c>
-      <x:c r="B22" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C22" s="0" t="s">
+      <x:c r="F22" s="0" t="s">
         <x:v>147</x:v>
       </x:c>
-      <x:c r="D22" s="0" t="s">
+      <x:c r="G22" s="0" t="s">
         <x:v>148</x:v>
       </x:c>
-      <x:c r="E22" s="0" t="s">
+      <x:c r="H22" s="0" t="s">
         <x:v>149</x:v>
       </x:c>
-      <x:c r="F22" s="0" t="s">
+      <x:c r="I22" s="0" t="s">
         <x:v>150</x:v>
-      </x:c>
-      <x:c r="G22" s="0" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="H22" s="0" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="I22" s="0" t="s">
-        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
         <x:v>154</x:v>
       </x:c>
-      <x:c r="D23" s="0" t="s">
+      <x:c r="F23" s="0" t="s">
         <x:v>155</x:v>
       </x:c>
-      <x:c r="E23" s="0" t="s">
+      <x:c r="G23" s="0" t="s">
         <x:v>156</x:v>
       </x:c>
-      <x:c r="F23" s="0" t="s">
+      <x:c r="H23" s="0" t="s">
         <x:v>157</x:v>
       </x:c>
-      <x:c r="G23" s="0" t="s">
+      <x:c r="I23" s="0" t="s">
         <x:v>158</x:v>
-      </x:c>
-      <x:c r="H23" s="0" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="I23" s="0" t="s">
-        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
       <x:c r="A24" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
         <x:v>161</x:v>
       </x:c>
-      <x:c r="D24" s="0" t="s">
+      <x:c r="F24" s="0" t="s">
         <x:v>162</x:v>
       </x:c>
-      <x:c r="E24" s="0" t="s">
+      <x:c r="G24" s="0" t="s">
         <x:v>163</x:v>
       </x:c>
-      <x:c r="F24" s="0" t="s">
+      <x:c r="H24" s="0" t="s">
         <x:v>164</x:v>
       </x:c>
-      <x:c r="G24" s="0" t="s">
+      <x:c r="I24" s="0" t="s">
         <x:v>165</x:v>
-      </x:c>
-      <x:c r="H24" s="0" t="s">
-        <x:v>166</x:v>
-      </x:c>
-      <x:c r="I24" s="0" t="s">
-        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
       <x:c r="A25" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
         <x:v>168</x:v>
       </x:c>
-      <x:c r="D25" s="0" t="s">
+      <x:c r="F25" s="0" t="s">
         <x:v>169</x:v>
       </x:c>
-      <x:c r="E25" s="0" t="s">
+      <x:c r="G25" s="0" t="s">
         <x:v>170</x:v>
       </x:c>
-      <x:c r="F25" s="0" t="s">
+      <x:c r="H25" s="0" t="s">
         <x:v>171</x:v>
       </x:c>
-      <x:c r="G25" s="0" t="s">
+      <x:c r="I25" s="0" t="s">
         <x:v>172</x:v>
-      </x:c>
-      <x:c r="H25" s="0" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="I25" s="0" t="s">
-        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
       <x:c r="A26" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
         <x:v>175</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
@@ -1957,7 +2404,7 @@
     </x:row>
     <x:row r="27" spans="1:9">
       <x:c r="A27" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>10</x:v>
@@ -1965,423 +2412,1239 @@
       <x:c r="C27" s="0" t="s">
         <x:v>180</x:v>
       </x:c>
-      <x:c r="D27" s="0" t="s">
+      <x:c r="F27" s="0" t="s">
         <x:v>181</x:v>
       </x:c>
-      <x:c r="E27" s="0" t="s">
+      <x:c r="G27" s="0" t="s">
         <x:v>182</x:v>
       </x:c>
-      <x:c r="F27" s="0" t="s">
+      <x:c r="H27" s="0" t="s">
         <x:v>183</x:v>
       </x:c>
-      <x:c r="G27" s="0" t="s">
+      <x:c r="I27" s="0" t="s">
         <x:v>184</x:v>
-      </x:c>
-      <x:c r="H27" s="0" t="s">
-        <x:v>185</x:v>
-      </x:c>
-      <x:c r="I27" s="0" t="s">
-        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
       <x:c r="A28" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
         <x:v>187</x:v>
       </x:c>
-      <x:c r="D28" s="0" t="s">
+      <x:c r="F28" s="0" t="s">
         <x:v>188</x:v>
       </x:c>
-      <x:c r="E28" s="0" t="s">
+      <x:c r="G28" s="0" t="s">
         <x:v>189</x:v>
       </x:c>
-      <x:c r="F28" s="0" t="s">
+      <x:c r="H28" s="0" t="s">
         <x:v>190</x:v>
       </x:c>
-      <x:c r="G28" s="0" t="s">
+      <x:c r="I28" s="0" t="s">
         <x:v>191</x:v>
-      </x:c>
-      <x:c r="H28" s="0" t="s">
-        <x:v>192</x:v>
-      </x:c>
-      <x:c r="I28" s="0" t="s">
-        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
       <x:c r="A29" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
         <x:v>194</x:v>
       </x:c>
-      <x:c r="D29" s="0" t="s">
+      <x:c r="H29" s="0" t="s">
         <x:v>195</x:v>
       </x:c>
-      <x:c r="E29" s="0" t="s">
+      <x:c r="I29" s="0" t="s">
         <x:v>196</x:v>
-      </x:c>
-      <x:c r="F29" s="0" t="s">
-        <x:v>197</x:v>
-      </x:c>
-      <x:c r="G29" s="0" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="H29" s="0" t="s">
-        <x:v>199</x:v>
-      </x:c>
-      <x:c r="I29" s="0" t="s">
-        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:9">
       <x:c r="A30" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
         <x:v>201</x:v>
       </x:c>
-      <x:c r="D30" s="0" t="s">
+      <x:c r="G30" s="0" t="s">
         <x:v>202</x:v>
       </x:c>
-      <x:c r="E30" s="0" t="s">
+      <x:c r="H30" s="0" t="s">
         <x:v>203</x:v>
       </x:c>
-      <x:c r="F30" s="0" t="s">
+      <x:c r="I30" s="0" t="s">
         <x:v>204</x:v>
-      </x:c>
-      <x:c r="G30" s="0" t="s">
-        <x:v>205</x:v>
-      </x:c>
-      <x:c r="H30" s="0" t="s">
-        <x:v>206</x:v>
-      </x:c>
-      <x:c r="I30" s="0" t="s">
-        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
       <x:c r="A31" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
         <x:v>208</x:v>
       </x:c>
-      <x:c r="E31" s="0" t="s">
+      <x:c r="G31" s="0" t="s">
         <x:v>209</x:v>
       </x:c>
-      <x:c r="F31" s="0" t="s">
+      <x:c r="H31" s="0" t="s">
         <x:v>210</x:v>
       </x:c>
-      <x:c r="G31" s="0" t="s">
+      <x:c r="I31" s="0" t="s">
         <x:v>211</x:v>
-      </x:c>
-      <x:c r="H31" s="0" t="s">
-        <x:v>212</x:v>
-      </x:c>
-      <x:c r="I31" s="0" t="s">
-        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
       <x:c r="A32" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
         <x:v>214</x:v>
       </x:c>
-      <x:c r="D32" s="0" t="s">
+      <x:c r="F32" s="0" t="s">
         <x:v>215</x:v>
       </x:c>
-      <x:c r="E32" s="0" t="s">
+      <x:c r="G32" s="0" t="s">
         <x:v>216</x:v>
       </x:c>
-      <x:c r="G32" s="0" t="s">
+      <x:c r="H32" s="0" t="s">
         <x:v>217</x:v>
       </x:c>
-      <x:c r="H32" s="0" t="s">
+      <x:c r="I32" s="0" t="s">
         <x:v>218</x:v>
-      </x:c>
-      <x:c r="I32" s="0" t="s">
-        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
       <x:c r="A33" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
         <x:v>220</x:v>
       </x:c>
-      <x:c r="D33" s="0" t="s">
+      <x:c r="E33" s="0" t="s">
         <x:v>221</x:v>
       </x:c>
-      <x:c r="E33" s="0" t="s">
+      <x:c r="F33" s="0" t="s">
         <x:v>222</x:v>
       </x:c>
-      <x:c r="F33" s="0" t="s">
+      <x:c r="G33" s="0" t="s">
         <x:v>223</x:v>
       </x:c>
-      <x:c r="G33" s="0" t="s">
+      <x:c r="H33" s="0" t="s">
         <x:v>224</x:v>
       </x:c>
-      <x:c r="H33" s="0" t="s">
+      <x:c r="I33" s="0" t="s">
         <x:v>225</x:v>
-      </x:c>
-      <x:c r="I33" s="0" t="s">
-        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
       <x:c r="A34" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
         <x:v>227</x:v>
       </x:c>
-      <x:c r="D34" s="0" t="s">
+      <x:c r="E34" s="0" t="s">
         <x:v>228</x:v>
       </x:c>
-      <x:c r="E34" s="0" t="s">
+      <x:c r="F34" s="0" t="s">
         <x:v>229</x:v>
       </x:c>
-      <x:c r="F34" s="0" t="s">
+      <x:c r="G34" s="0" t="s">
         <x:v>230</x:v>
       </x:c>
-      <x:c r="G34" s="0" t="s">
+      <x:c r="H34" s="0" t="s">
         <x:v>231</x:v>
       </x:c>
-      <x:c r="H34" s="0" t="s">
+      <x:c r="I34" s="0" t="s">
         <x:v>232</x:v>
-      </x:c>
-      <x:c r="I34" s="0" t="s">
-        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:9">
       <x:c r="A35" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="s">
         <x:v>234</x:v>
       </x:c>
-      <x:c r="D35" s="0" t="s">
+      <x:c r="G35" s="0" t="s">
         <x:v>235</x:v>
       </x:c>
-      <x:c r="E35" s="0" t="s">
+      <x:c r="H35" s="0" t="s">
         <x:v>236</x:v>
       </x:c>
-      <x:c r="F35" s="0" t="s">
+      <x:c r="I35" s="0" t="s">
         <x:v>237</x:v>
-      </x:c>
-      <x:c r="G35" s="0" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="H35" s="0" t="s">
-        <x:v>239</x:v>
-      </x:c>
-      <x:c r="I35" s="0" t="s">
-        <x:v>240</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:9">
       <x:c r="A36" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="s">
         <x:v>241</x:v>
       </x:c>
-      <x:c r="D36" s="0" t="s">
+      <x:c r="G36" s="0" t="s">
         <x:v>242</x:v>
       </x:c>
-      <x:c r="E36" s="0" t="s">
+      <x:c r="H36" s="0" t="s">
         <x:v>243</x:v>
       </x:c>
-      <x:c r="F36" s="0" t="s">
+      <x:c r="I36" s="0" t="s">
         <x:v>244</x:v>
-      </x:c>
-      <x:c r="G36" s="0" t="s">
-        <x:v>245</x:v>
-      </x:c>
-      <x:c r="H36" s="0" t="s">
-        <x:v>246</x:v>
-      </x:c>
-      <x:c r="I36" s="0" t="s">
-        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
       <x:c r="A37" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
         <x:v>248</x:v>
       </x:c>
-      <x:c r="D37" s="0" t="s">
+      <x:c r="F37" s="0" t="s">
         <x:v>249</x:v>
       </x:c>
-      <x:c r="E37" s="0" t="s">
+      <x:c r="G37" s="0" t="s">
         <x:v>250</x:v>
       </x:c>
-      <x:c r="F37" s="0" t="s">
+      <x:c r="H37" s="0" t="s">
         <x:v>251</x:v>
       </x:c>
-      <x:c r="G37" s="0" t="s">
+      <x:c r="I37" s="0" t="s">
         <x:v>252</x:v>
-      </x:c>
-      <x:c r="H37" s="0" t="s">
-        <x:v>253</x:v>
-      </x:c>
-      <x:c r="I37" s="0" t="s">
-        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
       <x:c r="A38" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
         <x:v>255</x:v>
       </x:c>
-      <x:c r="D38" s="0" t="s">
+      <x:c r="F38" s="0" t="s">
         <x:v>256</x:v>
       </x:c>
-      <x:c r="E38" s="0" t="s">
+      <x:c r="G38" s="0" t="s">
         <x:v>257</x:v>
       </x:c>
-      <x:c r="F38" s="0" t="s">
+      <x:c r="H38" s="0" t="s">
         <x:v>258</x:v>
       </x:c>
-      <x:c r="G38" s="0" t="s">
+      <x:c r="I38" s="0" t="s">
         <x:v>259</x:v>
-      </x:c>
-      <x:c r="H38" s="0" t="s">
-        <x:v>260</x:v>
-      </x:c>
-      <x:c r="I38" s="0" t="s">
-        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
       <x:c r="A39" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
         <x:v>262</x:v>
       </x:c>
-      <x:c r="D39" s="0" t="s">
+      <x:c r="F39" s="0" t="s">
         <x:v>263</x:v>
       </x:c>
-      <x:c r="E39" s="0" t="s">
+      <x:c r="G39" s="0" t="s">
         <x:v>264</x:v>
       </x:c>
-      <x:c r="F39" s="0" t="s">
+      <x:c r="H39" s="0" t="s">
         <x:v>265</x:v>
       </x:c>
-      <x:c r="G39" s="0" t="s">
+      <x:c r="I39" s="0" t="s">
         <x:v>266</x:v>
-      </x:c>
-      <x:c r="H39" s="0" t="s">
-        <x:v>267</x:v>
-      </x:c>
-      <x:c r="I39" s="0" t="s">
-        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
         <x:v>269</x:v>
       </x:c>
-      <x:c r="D40" s="0" t="s">
+      <x:c r="F40" s="0" t="s">
         <x:v>270</x:v>
       </x:c>
-      <x:c r="E40" s="0" t="s">
+      <x:c r="G40" s="0" t="s">
         <x:v>271</x:v>
       </x:c>
-      <x:c r="F40" s="0" t="s">
+      <x:c r="H40" s="0" t="s">
         <x:v>272</x:v>
       </x:c>
-      <x:c r="G40" s="0" t="s">
+      <x:c r="I40" s="0" t="s">
         <x:v>273</x:v>
-      </x:c>
-      <x:c r="H40" s="0" t="s">
-        <x:v>274</x:v>
-      </x:c>
-      <x:c r="I40" s="0" t="s">
-        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="I41" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:9">
+      <x:c r="A42" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="I42" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:9">
+      <x:c r="A43" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="I43" s="0" t="s">
+        <x:v>292</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:9">
+      <x:c r="A44" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="I44" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:9">
+      <x:c r="A45" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="I45" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:9">
+      <x:c r="A46" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="I46" s="0" t="s">
+        <x:v>314</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:9">
+      <x:c r="A47" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="I47" s="0" t="s">
+        <x:v>321</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:9">
+      <x:c r="A48" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="I48" s="0" t="s">
+        <x:v>327</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:9">
+      <x:c r="A49" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:9">
+      <x:c r="A50" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="s">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>339</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="I50" s="0" t="s">
+        <x:v>341</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:9">
+      <x:c r="A51" s="0" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>343</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>344</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>345</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="s">
+        <x:v>346</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>347</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="s">
+        <x:v>348</x:v>
+      </x:c>
+      <x:c r="I51" s="0" t="s">
+        <x:v>349</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:9">
+      <x:c r="A52" s="0" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>351</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="s">
+        <x:v>353</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="H52" s="0" t="s">
+        <x:v>355</x:v>
+      </x:c>
+      <x:c r="I52" s="0" t="s">
+        <x:v>356</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:9">
+      <x:c r="A53" s="0" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
+        <x:v>357</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>358</x:v>
+      </x:c>
+      <x:c r="E53" s="0" t="s">
+        <x:v>359</x:v>
+      </x:c>
+      <x:c r="F53" s="0" t="s">
+        <x:v>360</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="s">
+        <x:v>361</x:v>
+      </x:c>
+      <x:c r="H53" s="0" t="s">
+        <x:v>362</x:v>
+      </x:c>
+      <x:c r="I53" s="0" t="s">
+        <x:v>363</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:9">
+      <x:c r="A54" s="0" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>365</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="s">
+        <x:v>366</x:v>
+      </x:c>
+      <x:c r="F54" s="0" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="s">
+        <x:v>369</x:v>
+      </x:c>
+      <x:c r="I54" s="0" t="s">
+        <x:v>370</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:9">
+      <x:c r="A55" s="0" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>371</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="s">
+        <x:v>372</x:v>
+      </x:c>
+      <x:c r="E55" s="0" t="s">
+        <x:v>373</x:v>
+      </x:c>
+      <x:c r="F55" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="s">
+        <x:v>375</x:v>
+      </x:c>
+      <x:c r="H55" s="0" t="s">
+        <x:v>376</x:v>
+      </x:c>
+      <x:c r="I55" s="0" t="s">
+        <x:v>377</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:9">
+      <x:c r="A56" s="0" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F56" s="0" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="H56" s="0" t="s">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="I56" s="0" t="s">
+        <x:v>381</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:9">
+      <x:c r="A57" s="0" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="F57" s="0" t="s">
+        <x:v>383</x:v>
+      </x:c>
+      <x:c r="G57" s="0" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="H57" s="0" t="s">
+        <x:v>385</x:v>
+      </x:c>
+      <x:c r="I57" s="0" t="s">
+        <x:v>386</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:9">
+      <x:c r="A58" s="0" t="s">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
+        <x:v>388</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="s">
+        <x:v>389</x:v>
+      </x:c>
+      <x:c r="E58" s="0" t="s">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="F58" s="0" t="s">
+        <x:v>391</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="s">
+        <x:v>392</x:v>
+      </x:c>
+      <x:c r="H58" s="0" t="s">
+        <x:v>393</x:v>
+      </x:c>
+      <x:c r="I58" s="0" t="s">
+        <x:v>394</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:9">
+      <x:c r="A59" s="0" t="s">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="s">
+        <x:v>395</x:v>
+      </x:c>
+      <x:c r="F59" s="0" t="s">
+        <x:v>396</x:v>
+      </x:c>
+      <x:c r="G59" s="0" t="s">
+        <x:v>397</x:v>
+      </x:c>
+      <x:c r="H59" s="0" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="I59" s="0" t="s">
+        <x:v>399</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:9">
+      <x:c r="A60" s="0" t="s">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="s">
+        <x:v>400</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="s">
+        <x:v>389</x:v>
+      </x:c>
+      <x:c r="E60" s="0" t="s">
+        <x:v>401</x:v>
+      </x:c>
+      <x:c r="F60" s="0" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="G60" s="0" t="s">
+        <x:v>403</x:v>
+      </x:c>
+      <x:c r="H60" s="0" t="s">
+        <x:v>404</x:v>
+      </x:c>
+      <x:c r="I60" s="0" t="s">
+        <x:v>405</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:9">
+      <x:c r="A61" s="0" t="s">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="s">
+        <x:v>406</x:v>
+      </x:c>
+      <x:c r="F61" s="0" t="s">
+        <x:v>407</x:v>
+      </x:c>
+      <x:c r="G61" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+      <x:c r="H61" s="0" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="I61" s="0" t="s">
+        <x:v>410</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:9">
+      <x:c r="A62" s="0" t="s">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C62" s="0" t="s">
+        <x:v>411</x:v>
+      </x:c>
+      <x:c r="D62" s="0" t="s">
+        <x:v>412</x:v>
+      </x:c>
+      <x:c r="E62" s="0" t="s">
+        <x:v>413</x:v>
+      </x:c>
+      <x:c r="F62" s="0" t="s">
+        <x:v>414</x:v>
+      </x:c>
+      <x:c r="G62" s="0" t="s">
+        <x:v>415</x:v>
+      </x:c>
+      <x:c r="H62" s="0" t="s">
+        <x:v>416</x:v>
+      </x:c>
+      <x:c r="I62" s="0" t="s">
+        <x:v>417</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:9">
+      <x:c r="A63" s="0" t="s">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C63" s="0" t="s">
+        <x:v>418</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="s">
+        <x:v>419</x:v>
+      </x:c>
+      <x:c r="E63" s="0" t="s">
+        <x:v>420</x:v>
+      </x:c>
+      <x:c r="F63" s="0" t="s">
+        <x:v>421</x:v>
+      </x:c>
+      <x:c r="G63" s="0" t="s">
+        <x:v>422</x:v>
+      </x:c>
+      <x:c r="H63" s="0" t="s">
+        <x:v>423</x:v>
+      </x:c>
+      <x:c r="I63" s="0" t="s">
+        <x:v>424</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:9">
+      <x:c r="A64" s="0" t="s">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C64" s="0" t="s">
+        <x:v>425</x:v>
+      </x:c>
+      <x:c r="E64" s="0" t="s">
+        <x:v>426</x:v>
+      </x:c>
+      <x:c r="F64" s="0" t="s">
+        <x:v>427</x:v>
+      </x:c>
+      <x:c r="G64" s="0" t="s">
+        <x:v>428</x:v>
+      </x:c>
+      <x:c r="H64" s="0" t="s">
+        <x:v>429</x:v>
+      </x:c>
+      <x:c r="I64" s="0" t="s">
+        <x:v>430</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:9">
+      <x:c r="A65" s="0" t="s">
+        <x:v>431</x:v>
+      </x:c>
+      <x:c r="B65" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C65" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F65" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="G65" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="H65" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="I65" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:9">
+      <x:c r="A66" s="0" t="s">
+        <x:v>431</x:v>
+      </x:c>
+      <x:c r="B66" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C66" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D66" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E66" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="F66" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G66" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H66" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I66" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:9">
+      <x:c r="A67" s="0" t="s">
+        <x:v>431</x:v>
+      </x:c>
+      <x:c r="B67" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C67" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D67" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E67" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="F67" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="G67" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="H67" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="I67" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:9">
+      <x:c r="A68" s="0" t="s">
+        <x:v>431</x:v>
+      </x:c>
+      <x:c r="B68" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C68" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D68" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E68" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="F68" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="C41" s="0" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="D41" s="0" t="s">
-        <x:v>277</x:v>
-      </x:c>
-      <x:c r="E41" s="0" t="s">
-        <x:v>278</x:v>
-      </x:c>
-      <x:c r="F41" s="0" t="s">
-        <x:v>279</x:v>
-      </x:c>
-      <x:c r="G41" s="0" t="s">
-        <x:v>280</x:v>
-      </x:c>
-      <x:c r="H41" s="0" t="s">
-        <x:v>281</x:v>
-      </x:c>
-      <x:c r="I41" s="0" t="s">
-        <x:v>282</x:v>
+      <x:c r="G68" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="H68" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="I68" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:9">
+      <x:c r="A69" s="0" t="s">
+        <x:v>431</x:v>
+      </x:c>
+      <x:c r="B69" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C69" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D69" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E69" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="F69" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G69" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="H69" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I69" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:9">
+      <x:c r="A70" s="0" t="s">
+        <x:v>431</x:v>
+      </x:c>
+      <x:c r="B70" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C70" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D70" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="E70" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F70" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="G70" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="H70" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="I70" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:9">
+      <x:c r="A71" s="0" t="s">
+        <x:v>431</x:v>
+      </x:c>
+      <x:c r="B71" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C71" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E71" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F71" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="G71" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="H71" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="I71" s="0" t="s">
+        <x:v>64</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
